--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK06001_パスワード変更画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK06001_パスワード変更画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\センシンソフト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BFFAFE-D0D3-42B5-8026-62A64B8FA8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A97392-B1AB-47AB-9247-604D1AB525B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="11120" windowHeight="8860" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7730" yWindow="560" windowWidth="11120" windowHeight="8860" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -331,10 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>check_new_password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確認用パスワード</t>
     <rPh sb="0" eb="3">
       <t>カクニンヨウ</t>
@@ -400,51 +396,6 @@
     <t>checkDBOldPass</t>
   </si>
   <si>
-    <t>1.userテーブルのpasswordを取得してFormに登録</t>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.DBから取得した値と２でハッシュ化した値が等しいか確認</t>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.等しければ次の処理へ</t>
-    <rPh sb="2" eb="3">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>equalPass</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -474,25 +425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.等しい場合、登録処理(registPass)へ</t>
-    <rPh sb="2" eb="3">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registDBNewPass</t>
-  </si>
-  <si>
     <t>1.新パスワードをハッシュ化</t>
     <rPh sb="2" eb="3">
       <t>シン</t>
@@ -509,42 +441,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>errorMessage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.渡された値に対応したエラーメッセージを画面に表示</t>
-    <rPh sb="2" eb="3">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>registMessage</t>
-  </si>
-  <si>
-    <t>1.登録完了メッセージを表示</t>
-    <rPh sb="2" eb="6">
-      <t>トウロクカンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -581,143 +477,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.旧パスワードに入力された値を10回ハッシュ化</t>
-    <rPh sb="2" eb="3">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カ</t>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check_password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotEmpty,8～20文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NotEmpty,8～21文字</t>
+  </si>
+  <si>
+    <t>NotEmpty,8～22文字</t>
+  </si>
+  <si>
+    <t>registDBNewPass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new_password、check_password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>old_password、new_password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.userテーブルのpasswordを取得</t>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.異なる場合次の処理へ</t>
-    <rPh sb="2" eb="3">
-      <t>コト</t>
+    <t>2.DBから取得した値と入力された旧パスワードの値が等しいか確認</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.「新しいパスワードと確認用パスワードに入力された値が異なります」</t>
-    <rPh sb="3" eb="4">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>カクニンヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
+    <rPh sb="12" eb="14">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="26" eb="27">
+    <rPh sb="17" eb="18">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
       <t>アタイ</t>
     </rPh>
-    <rPh sb="28" eb="29">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.「新しいパスワードは以前のパスワードと異なるものにしてください」</t>
-    <rPh sb="3" eb="4">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.異なる場合、errorMessageに値を渡す（１のメッセージを表示）</t>
-    <rPh sb="2" eb="3">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.等しい場合、errorMessageに値を渡す（２のメッセージを表示）</t>
-    <rPh sb="2" eb="3">
+    <rPh sb="26" eb="27">
       <t>ヒト</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2．異なる場合errorMessageへ値を渡す（３のメッセージを表示）</t>
-    <rPh sb="2" eb="3">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「入力された旧パスワードは登録されていません」</t>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -729,7 +546,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +613,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1137,10 +962,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1190,13 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,67 +1028,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,14 +1091,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1331,6 +1154,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,14 +1169,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1692,23 +1522,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1729,21 +1559,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1764,21 +1594,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1869,25 +1699,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22" t="s">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1908,21 +1738,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1943,25 +1773,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="22" t="s">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1982,21 +1812,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -2120,29 +1950,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="19" t="s">
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="24" t="s">
+      <c r="R16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="19" t="s">
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2163,29 +1993,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18">
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="24">
         <v>44139</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="17" t="s">
+      <c r="R17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="18">
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="24">
         <v>44139</v>
       </c>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2513,6 +2343,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -2520,12 +2356,6 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2551,104 +2381,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="25" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="37" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="58" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="37" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="59">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="25" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>パスワード変更</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="37" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="58" t="str">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="37" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="59">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -2749,682 +2579,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="47" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="48"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="32"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
-      <c r="B7" s="49">
+      <c r="B7" s="33">
         <v>1</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52">
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36">
         <v>44139</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="38" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="40"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="44"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="40"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="44"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="40"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="44"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="40"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="44"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="40"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="44"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="40"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="44"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="40"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="44"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="40"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="44"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="40"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="44"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="40"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="44"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="43"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="51"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="40"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="44"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="40"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="44"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="40"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="44"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="40"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="44"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="40"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="44"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="40"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="44"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="36"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="54"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -3500,62 +3330,22 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AB24"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:AB12"/>
     <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3572,22 +3362,62 @@
     <mergeCell ref="I20:AB20"/>
     <mergeCell ref="AC20:AE20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AB24"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3614,104 +3444,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="25" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="37" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="58" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="37" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="59">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="25" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>パスワード変更</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="37" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="58" t="str">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="37" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="59">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -4578,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4595,105 +4425,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="25" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="37" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="58" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="37" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="59">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
       <c r="AU1" s="7"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="25" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>パスワード変更</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="37" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="58" t="str">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="37" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="59">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
       <c r="AU2" s="7"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.55000000000000004">
@@ -4796,98 +4626,98 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="64" t="s">
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="67" t="s">
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67" t="s">
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67" t="s">
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67" t="s">
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="67"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="67"/>
-      <c r="AT5" s="67"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
       <c r="AU5" s="7"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
-      <c r="B6" s="31">
+      <c r="B6" s="48">
         <v>1</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="63"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="62"/>
       <c r="U6" s="68" t="s">
         <v>40</v>
       </c>
@@ -4900,59 +4730,59 @@
       <c r="Z6" s="68"/>
       <c r="AA6" s="68"/>
       <c r="AB6" s="68"/>
-      <c r="AC6" s="31" t="s">
+      <c r="AC6" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="31"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
       <c r="AU6" s="7"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
-      <c r="B7" s="31">
+      <c r="B7" s="48">
         <v>2</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="63"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="62"/>
       <c r="U7" s="68" t="s">
         <v>40</v>
       </c>
@@ -4965,166 +4795,166 @@
       <c r="Z7" s="68"/>
       <c r="AA7" s="68"/>
       <c r="AB7" s="68"/>
-      <c r="AC7" s="31" t="s">
+      <c r="AC7" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
       <c r="AU7" s="7"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
-      <c r="B8" s="31">
+      <c r="B8" s="48">
         <v>3</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="61" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="61" t="s">
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="38" t="s">
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="38" t="s">
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="61" t="s">
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="63"/>
+      <c r="AM8" s="61"/>
+      <c r="AN8" s="61"/>
+      <c r="AO8" s="61"/>
+      <c r="AP8" s="61"/>
+      <c r="AQ8" s="61"/>
+      <c r="AR8" s="61"/>
+      <c r="AS8" s="61"/>
+      <c r="AT8" s="62"/>
       <c r="AU8" s="7"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
-      <c r="B9" s="31">
+      <c r="B9" s="48">
         <v>4</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="61" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="61" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="61" t="s">
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="61" t="s">
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="63"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="62"/>
       <c r="AU9" s="7"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
-      <c r="B10" s="61">
+      <c r="B10" s="60">
         <v>5</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="14" t="s">
         <v>32</v>
       </c>
@@ -5148,36 +4978,40 @@
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
-      <c r="U10" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="63"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="63"/>
+      <c r="U10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="62"/>
       <c r="AU10" s="7"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.55000000000000004">
@@ -6015,26 +5849,19 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="AL10:AT10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="AL6:AT6"/>
-    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="AL5:AT5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="AL8:AT8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AL9:AT9"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A2:E2"/>
@@ -6050,28 +5877,35 @@
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="Y5:AB5"/>
     <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="AL6:AT6"/>
+    <mergeCell ref="AL7:AT7"/>
     <mergeCell ref="P6:T6"/>
     <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U5:X5"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="U7:X7"/>
     <mergeCell ref="Y7:AB7"/>
     <mergeCell ref="AC7:AK7"/>
     <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AL5:AT5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="AL8:AT8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AL9:AT9"/>
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="AL10:AT10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6086,10 +5920,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AG76"/>
+  <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6102,104 +5936,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="25" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="37" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="58" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="37" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="59">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="25" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>パスワード変更</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="37" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="58" t="str">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="37" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="59">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -6239,7 +6073,7 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -6317,7 +6151,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -6430,7 +6264,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -6576,7 +6410,7 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -6594,7 +6428,9 @@
         <v>20</v>
       </c>
       <c r="T13" s="13"/>
-      <c r="U13" s="12"/>
+      <c r="U13" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
@@ -6687,7 +6523,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6804,7 +6640,7 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -6823,7 +6659,7 @@
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -6917,7 +6753,7 @@
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -6954,7 +6790,7 @@
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -6990,9 +6826,6 @@
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -7027,10 +6860,8 @@
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="D26" s="69"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -7065,9 +6896,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -7141,7 +6970,7 @@
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -7160,7 +6989,7 @@
       </c>
       <c r="T29" s="13"/>
       <c r="U29" s="12" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
@@ -7254,7 +7083,7 @@
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -7291,9 +7120,7 @@
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -7328,9 +7155,7 @@
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -7509,7 +7334,7 @@
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -7528,7 +7353,7 @@
       </c>
       <c r="T39" s="13"/>
       <c r="U39" s="12" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
@@ -7622,7 +7447,7 @@
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -7659,9 +7484,7 @@
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -7696,9 +7519,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -7842,7 +7663,7 @@
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -7955,7 +7776,7 @@
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
       <c r="D51" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -7992,7 +7813,7 @@
       <c r="B52" s="6"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -8167,736 +7988,107 @@
     <row r="57" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="T57" s="13"/>
-      <c r="U57" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="13"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
       <c r="AF57" s="6"/>
       <c r="AG57" s="7"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T58" s="4"/>
-      <c r="U58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="4"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
       <c r="AF58" s="6"/>
       <c r="AG58" s="7"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="7"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="7"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-      <c r="AA60" s="6"/>
-      <c r="AB60" s="6"/>
-      <c r="AC60" s="6"/>
-      <c r="AD60" s="6"/>
-      <c r="AE60" s="7"/>
-      <c r="AF60" s="6"/>
-      <c r="AG60" s="7"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
-      <c r="AA61" s="6"/>
-      <c r="AB61" s="6"/>
-      <c r="AC61" s="6"/>
-      <c r="AD61" s="6"/>
-      <c r="AE61" s="7"/>
-      <c r="AF61" s="6"/>
-      <c r="AG61" s="7"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
-      <c r="AA62" s="6"/>
-      <c r="AB62" s="6"/>
-      <c r="AC62" s="6"/>
-      <c r="AD62" s="6"/>
-      <c r="AE62" s="7"/>
-      <c r="AF62" s="6"/>
-      <c r="AG62" s="7"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
-      <c r="AA63" s="6"/>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="7"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="7"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
-      <c r="AA64" s="6"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="7"/>
-      <c r="AF64" s="6"/>
-      <c r="AG64" s="7"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-      <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="9"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="6"/>
-      <c r="AG65" s="7"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="T66" s="13"/>
-      <c r="U66" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="V66" s="12"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="12"/>
-      <c r="AC66" s="12"/>
-      <c r="AD66" s="12"/>
-      <c r="AE66" s="13"/>
-      <c r="AF66" s="6"/>
-      <c r="AG66" s="7"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T67" s="4"/>
-      <c r="U67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="6"/>
-      <c r="AG67" s="7"/>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
-      <c r="AA68" s="6"/>
-      <c r="AB68" s="6"/>
-      <c r="AC68" s="6"/>
-      <c r="AD68" s="6"/>
-      <c r="AE68" s="7"/>
-      <c r="AF68" s="6"/>
-      <c r="AG68" s="7"/>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
-      <c r="AA69" s="6"/>
-      <c r="AB69" s="6"/>
-      <c r="AC69" s="6"/>
-      <c r="AD69" s="6"/>
-      <c r="AE69" s="7"/>
-      <c r="AF69" s="6"/>
-      <c r="AG69" s="7"/>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-      <c r="AA70" s="6"/>
-      <c r="AB70" s="6"/>
-      <c r="AC70" s="6"/>
-      <c r="AD70" s="6"/>
-      <c r="AE70" s="7"/>
-      <c r="AF70" s="6"/>
-      <c r="AG70" s="7"/>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
-      <c r="AA71" s="6"/>
-      <c r="AB71" s="6"/>
-      <c r="AC71" s="6"/>
-      <c r="AD71" s="6"/>
-      <c r="AE71" s="7"/>
-      <c r="AF71" s="6"/>
-      <c r="AG71" s="7"/>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
-      <c r="AA72" s="6"/>
-      <c r="AB72" s="6"/>
-      <c r="AC72" s="6"/>
-      <c r="AD72" s="6"/>
-      <c r="AE72" s="7"/>
-      <c r="AF72" s="6"/>
-      <c r="AG72" s="7"/>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
-      <c r="AA73" s="6"/>
-      <c r="AB73" s="6"/>
-      <c r="AC73" s="6"/>
-      <c r="AD73" s="6"/>
-      <c r="AE73" s="7"/>
-      <c r="AF73" s="6"/>
-      <c r="AG73" s="7"/>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-      <c r="AA74" s="9"/>
-      <c r="AB74" s="9"/>
-      <c r="AC74" s="9"/>
-      <c r="AD74" s="9"/>
-      <c r="AE74" s="9"/>
-      <c r="AF74" s="6"/>
-      <c r="AG74" s="7"/>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
-      <c r="AA75" s="6"/>
-      <c r="AB75" s="6"/>
-      <c r="AC75" s="6"/>
-      <c r="AD75" s="6"/>
-      <c r="AE75" s="6"/>
-      <c r="AF75" s="6"/>
-      <c r="AG75" s="7"/>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-      <c r="AF76" s="3"/>
-      <c r="AG76" s="4"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8937,104 +8129,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="25" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="55" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="37" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="37"/>
-      <c r="X1" s="58" t="str">
+      <c r="W1" s="25"/>
+      <c r="X1" s="26" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="37" t="s">
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="59">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="27">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="25" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="55" t="str">
         <f>表紙!O11</f>
         <v>パスワード変更</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="37" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="58" t="str">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="37" t="s">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="59">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="27">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -9153,7 +8345,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK06001_パスワード変更画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK06001_パスワード変更画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\センシンソフト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A97392-B1AB-47AB-9247-604D1AB525B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A96397-D286-4D55-8F19-1224FD7E199C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7730" yWindow="560" windowWidth="11120" windowHeight="8860" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="960" windowWidth="11120" windowHeight="8860" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="73">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -489,12 +489,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NotEmpty,8～21文字</t>
-  </si>
-  <si>
-    <t>NotEmpty,8～22文字</t>
-  </si>
-  <si>
     <t>registDBNewPass</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -536,6 +530,43 @@
     <rPh sb="30" eb="32">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>等しくなければエラーメッセージを表示</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>等しければエラーメッセージを表示</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.CheckDBOldPass、inequalPass、equlalPassでエラーが無ければ登録処理へ</t>
+    <rPh sb="44" eb="45">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.CheckDBOldPass、inequalPass、equlalPassでエラーが無ければ登録処理へ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1016,7 +1047,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,25 +1065,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,59 +1170,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1153,12 +1190,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,7 +1203,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1522,23 +1553,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -1559,21 +1590,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1594,21 +1625,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1699,25 +1730,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20" t="s">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -1738,21 +1769,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -1773,25 +1804,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20" t="s">
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1812,21 +1843,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -1950,29 +1981,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23" t="s">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="21" t="s">
+      <c r="R16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="23" t="s">
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -1993,29 +2024,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="24">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18">
         <v>44139</v>
       </c>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="22" t="s">
+      <c r="R17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="24">
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="18">
         <v>44139</v>
       </c>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2343,12 +2374,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -2356,6 +2381,12 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2381,104 +2412,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="55" t="str">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="25" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="25" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26" t="str">
+      <c r="W1" s="37"/>
+      <c r="X1" s="58" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="27">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="59">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="55" t="str">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="25" t="str">
         <f>表紙!O11</f>
         <v>パスワード変更</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="25" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26" t="str">
+      <c r="W2" s="37"/>
+      <c r="X2" s="58" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="25" t="s">
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="27">
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="59">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -2579,682 +2610,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="31" t="s">
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="32"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="48"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
-      <c r="B7" s="33">
+      <c r="B7" s="49">
         <v>1</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36">
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52">
         <v>44139</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="42" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="44"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="40"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="44"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="40"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="44"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="40"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="44"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="40"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="44"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="40"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="44"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="40"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="44"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="40"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="44"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="40"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="44"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="40"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="44"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="40"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="51"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="43"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="44"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="40"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="44"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="40"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="44"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="40"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="44"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="40"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="44"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="40"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="44"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="40"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="54"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="36"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -3330,6 +3361,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="F1:U1"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B24:D24"/>
@@ -3346,78 +3449,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:AB12"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3444,104 +3475,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="55" t="str">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="25" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="25" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26" t="str">
+      <c r="W1" s="37"/>
+      <c r="X1" s="58" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="27">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="59">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="55" t="str">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="25" t="str">
         <f>表紙!O11</f>
         <v>パスワード変更</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="25" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26" t="str">
+      <c r="W2" s="37"/>
+      <c r="X2" s="58" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="25" t="s">
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="27">
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="59">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -4408,8 +4439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:I6"/>
+    <sheetView topLeftCell="P4" zoomScale="98" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9:AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4425,105 +4456,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="55" t="str">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="25" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="25" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26" t="str">
+      <c r="W1" s="37"/>
+      <c r="X1" s="58" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="27">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="59">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
       <c r="AU1" s="7"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="55" t="str">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="25" t="str">
         <f>表紙!O11</f>
         <v>パスワード変更</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="25" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26" t="str">
+      <c r="W2" s="37"/>
+      <c r="X2" s="58" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="25" t="s">
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="27">
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="59">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
       <c r="AU2" s="7"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.55000000000000004">
@@ -4626,26 +4657,26 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
       <c r="P5" s="65" t="s">
         <v>34</v>
       </c>
@@ -4653,71 +4684,71 @@
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="67"/>
-      <c r="U5" s="64" t="s">
+      <c r="U5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64" t="s">
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64" t="s">
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64" t="s">
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="60"/>
       <c r="AU5" s="7"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
-      <c r="B6" s="48">
+      <c r="B6" s="31">
         <v>1</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="60" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="62"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="64"/>
       <c r="U6" s="68" t="s">
         <v>40</v>
       </c>
@@ -4730,59 +4761,59 @@
       <c r="Z6" s="68"/>
       <c r="AA6" s="68"/>
       <c r="AB6" s="68"/>
-      <c r="AC6" s="48" t="s">
+      <c r="AC6" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48" t="s">
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="31"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="31"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="31"/>
+      <c r="AT6" s="31"/>
       <c r="AU6" s="7"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
-      <c r="B7" s="48">
+      <c r="B7" s="31">
         <v>2</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="60" t="s">
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="62"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="64"/>
       <c r="U7" s="68" t="s">
         <v>40</v>
       </c>
@@ -4795,166 +4826,166 @@
       <c r="Z7" s="68"/>
       <c r="AA7" s="68"/>
       <c r="AB7" s="68"/>
-      <c r="AC7" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48" t="s">
+      <c r="AC7" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="31"/>
+      <c r="AT7" s="31"/>
       <c r="AU7" s="7"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
-      <c r="B8" s="48">
+      <c r="B8" s="31">
         <v>3</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="60" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="60" t="s">
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="60" t="s">
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="42" t="s">
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="42" t="s">
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="60" t="s">
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="61"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="62"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="64"/>
       <c r="AU8" s="7"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
-      <c r="B9" s="48">
+      <c r="B9" s="31">
         <v>4</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="60" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="60" t="s">
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="60" t="s">
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="42" t="s">
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="42" t="s">
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="60" t="s">
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="60" t="s">
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63"/>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="62"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="63"/>
+      <c r="AO9" s="63"/>
+      <c r="AP9" s="63"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="63"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="64"/>
       <c r="AU9" s="7"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
-      <c r="B10" s="60">
+      <c r="B10" s="62">
         <v>5</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="14" t="s">
         <v>32</v>
       </c>
@@ -4978,40 +5009,40 @@
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="16"/>
-      <c r="U10" s="42" t="s">
+      <c r="U10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="42" t="s">
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="60" t="s">
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="60" t="s">
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="62"/>
+      <c r="AM10" s="63"/>
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="63"/>
+      <c r="AP10" s="63"/>
+      <c r="AQ10" s="63"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="64"/>
       <c r="AU10" s="7"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.55000000000000004">
@@ -5849,19 +5880,31 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AL5:AT5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AK8"/>
-    <mergeCell ref="AL8:AT8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AK9"/>
-    <mergeCell ref="AL9:AT9"/>
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="AL10:AT10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="AL6:AT6"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AC7:AK7"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AK6"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A2:E2"/>
@@ -5878,34 +5921,22 @@
     <mergeCell ref="Y5:AB5"/>
     <mergeCell ref="P5:T5"/>
     <mergeCell ref="U5:X5"/>
+    <mergeCell ref="AL5:AT5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AK8"/>
+    <mergeCell ref="AL8:AT8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AK9"/>
+    <mergeCell ref="AL9:AT9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="J8:O8"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="AL6:AT6"/>
-    <mergeCell ref="AL7:AT7"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="AL10:AT10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5914,7 +5945,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5922,8 +5953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5936,104 +5967,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="55" t="str">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="25" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="25" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26" t="str">
+      <c r="W1" s="37"/>
+      <c r="X1" s="58" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="27">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="59">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="55" t="str">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="25" t="str">
         <f>表紙!O11</f>
         <v>パスワード変更</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="25" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26" t="str">
+      <c r="W2" s="37"/>
+      <c r="X2" s="58" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="25" t="s">
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="27">
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="59">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -6753,7 +6784,7 @@
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -6790,7 +6821,7 @@
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -6826,7 +6857,9 @@
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -6860,7 +6893,9 @@
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="69"/>
+      <c r="D26" s="69" t="s">
+        <v>71</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -6989,7 +7024,7 @@
       </c>
       <c r="T29" s="13"/>
       <c r="U29" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
@@ -7120,7 +7155,9 @@
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -7189,7 +7226,9 @@
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -7353,7 +7392,7 @@
       </c>
       <c r="T39" s="13"/>
       <c r="U39" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V39" s="12"/>
       <c r="W39" s="12"/>
@@ -7484,7 +7523,9 @@
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -7553,7 +7594,9 @@
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -7663,7 +7706,7 @@
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -8129,104 +8172,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="55" t="str">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="25" t="str">
         <f>表紙!O9</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="25" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26" t="str">
+      <c r="W1" s="37"/>
+      <c r="X1" s="58" t="str">
         <f>表紙!M16</f>
         <v>高橋</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="27">
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="59">
         <f>表紙!M17</f>
         <v>44139</v>
       </c>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="55" t="str">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="25" t="str">
         <f>表紙!O11</f>
         <v>パスワード変更</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="25" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="26" t="str">
+      <c r="W2" s="37"/>
+      <c r="X2" s="58" t="str">
         <f>表紙!U16</f>
         <v>高橋</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="25" t="s">
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="27">
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="59">
         <f>表紙!U17</f>
         <v>44139</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>

--- a/docs/画面設計書/【勤怠管理システム_画面設計書】KK06001_パスワード変更画面.xlsx
+++ b/docs/画面設計書/【勤怠管理システム_画面設計書】KK06001_パスワード変更画面.xlsx
@@ -20,12 +20,11 @@
     <sheet name="備考" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>更新履歴</t>
   </si>
@@ -201,48 +200,6 @@
     <t>1. パスワード変更画面で使用するformオブジェクトを返す。</t>
   </si>
   <si>
-    <t>backMenu</t>
-  </si>
-  <si>
-    <t>1. 「戻る」ボタン押下時、メニュー画面(KK05001)に遷移。</t>
-  </si>
-  <si>
-    <t>changePassword</t>
-  </si>
-  <si>
-    <t>KK06001Form, BindingResult</t>
-  </si>
-  <si>
-    <t>1. 「変更」ボタン押下時、次のパスワードのエラーチェックを行う</t>
-  </si>
-  <si>
-    <t>1-1. 現在のパスワードが合っているか</t>
-  </si>
-  <si>
-    <t>合ってない場合は、「現在のパスワードが合っていません」と出力する。</t>
-  </si>
-  <si>
-    <t>1-2. 新しいパスワードが8文字以上20文字以下であるか</t>
-  </si>
-  <si>
-    <t>条件を満たさない場合は、「パスワードは8文字以上20字以下で入力してください」と出力する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3. 現在のパスワードと新しいパスワードが一致していない </t>
-  </si>
-  <si>
-    <t>一致する場合は、「現在のパスワードと新しいパスワードを異なるパスワードにしてください」と出力する</t>
-  </si>
-  <si>
-    <t>1-4. 新しいパスワードと確認用の新しいパスワードが合っているか</t>
-  </si>
-  <si>
-    <t>合ってない場合は、「新しいパスワードが確認用パスワードと一致していません」と出力する</t>
-  </si>
-  <si>
-    <t>2. エラーチェックでエラーがない場合、パスワードの変更処理を行う</t>
-  </si>
-  <si>
     <t>使用テーブル</t>
   </si>
   <si>
@@ -273,6 +230,357 @@
     <t>深町</t>
     <rPh sb="0" eb="2">
       <t>フカマチ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getoutFromKK06001</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1. 「戻る」ボタン押下時、メニュー画面(KK05001)にリダイレクトする。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>enterKK06001</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>KK06001Form,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Model</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1. パスワード変更画面で表示するヘッダ用情報をモデルに追加する。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2. 戻り値（パスワード変更画面のパス）を返し、パスワード変更画面を表示する。</t>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>updateChangePassword</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>Model,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>KK06001Form, BindingResult</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2. 旧パスワード、新パスワード、確認用パスワードが全て入力されているかチェックする。</t>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>2-1-1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスワード変更画面で表示するヘッダ用情報をモデルに追加する。</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2-1-2. 自画面遷移し、「すべて入力してください」と出力する。</t>
+    <rPh sb="7" eb="12">
+      <t>ジガメンセンイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1. 「変更」ボタン押下時、入力された新しいパスワードを暗号化する。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2-1. いずれかが入力されていない場合</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3-1-1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスワード変更画面で表示するヘッダ用情報をモデルに追加する。</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3-1. 現在のパスワードが一致していない場合</t>
+    <rPh sb="14" eb="16">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3-1-2. 自画面遷移し、「現在のパスワードが合っていません」と出力する。</t>
+    <rPh sb="7" eb="12">
+      <t>ジガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>5. 自画面にリダイレクトする。</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3-2-1. パスワード変更画面で表示するヘッダ用情報をモデルに追加する。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3-3-1. パスワード変更画面で表示するヘッダ用情報をモデルに追加する。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3-4-1. パスワード変更画面で表示するヘッダ用情報をモデルに追加する。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>3-2-2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 自画面遷移し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「パスワードは8文字以上20字以下で入力してください」と出力する</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3-2. 新しいパスワードが8文字以上20文字以下でない場合</t>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3-3. 現在のパスワードと新しいパスワードが一致している場合</t>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>3-3-2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 自画面遷移し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「現在のパスワードと新しいパスワードを異なるパスワードにしてください」と出力する</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3-4. 新しいパスワードと確認用の新しいパスワードが一致していない場合</t>
+    <rPh sb="27" eb="29">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>3-4-2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 自画面遷移し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「新しいパスワードが確認用パスワードと一致していません」と出力する</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>4. 「3.」でエラーがない場合「userService.updateUserPass」を呼び出し、パスワードの変更処理を行う。</t>
+    <rPh sb="45" eb="46">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3. 入力されたパスワードのエラーチェックを行う。</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -804,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,10 +1201,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,19 +1253,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,7 +1307,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,58 +1361,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,17 +1373,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,10 +1397,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,13 +1409,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2372,23 +2705,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -2409,21 +2742,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -2444,21 +2777,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -2549,25 +2882,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38" t="s">
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
@@ -2588,21 +2921,21 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2623,25 +2956,25 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38" t="s">
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -2662,21 +2995,21 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -2802,29 +3135,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42" t="s">
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="42" t="s">
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2845,29 +3178,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="44">
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46">
         <v>44151</v>
       </c>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
       <c r="Q17" s="11"/>
-      <c r="R17" s="40" t="s">
+      <c r="R17" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="44">
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="46">
         <v>44151</v>
       </c>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -3195,12 +3528,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="J11:N12"/>
-    <mergeCell ref="O11:X12"/>
     <mergeCell ref="J4:X6"/>
     <mergeCell ref="J9:N10"/>
     <mergeCell ref="O9:X10"/>
@@ -3208,6 +3535,12 @@
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="R16:T16"/>
     <mergeCell ref="U16:X16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="J11:N12"/>
+    <mergeCell ref="O11:X12"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866099999999999" right="0.70866099999999999" top="0.748031" bottom="0.748031" header="0.31496099999999999" footer="0.31496099999999999"/>
@@ -3238,98 +3571,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="74" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="45" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="45" t="s">
+      <c r="W1" s="69"/>
+      <c r="X1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="45" t="s">
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47">
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="89">
         <v>44151</v>
       </c>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
     </row>
     <row r="2" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="74" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="45" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="45" t="s">
+      <c r="W2" s="69"/>
+      <c r="X2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="45" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="47">
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="89">
         <v>44151</v>
       </c>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
     </row>
     <row r="3" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
@@ -3440,682 +3773,682 @@
     </row>
     <row r="6" spans="1:33" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="50" t="s">
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="50" t="s">
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="53"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="78"/>
       <c r="AF6" s="20"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
-      <c r="B7" s="54">
+      <c r="B7" s="79">
         <v>1</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57">
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82">
         <v>44151</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60" t="s">
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="65"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="72"/>
       <c r="AF7" s="20"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
       <c r="AC8" s="70"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="65"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="72"/>
       <c r="AF8" s="20"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
       <c r="AC9" s="70"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="65"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="72"/>
       <c r="AF9" s="20"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
       <c r="AC10" s="70"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="65"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="72"/>
       <c r="AF10" s="20"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
       <c r="AC11" s="70"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="65"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="72"/>
       <c r="AF11" s="20"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
       <c r="AC12" s="70"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="65"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="72"/>
       <c r="AF12" s="20"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
       <c r="AC13" s="70"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="65"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="72"/>
       <c r="AF13" s="20"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
       <c r="AC14" s="70"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="65"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="72"/>
       <c r="AF14" s="20"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
       <c r="AC15" s="70"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="65"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="72"/>
       <c r="AF15" s="20"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
       <c r="AC16" s="70"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="65"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="72"/>
       <c r="AF16" s="20"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
       <c r="AC17" s="70"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="65"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="72"/>
       <c r="AF17" s="20"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
       <c r="AC18" s="70"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="65"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="72"/>
       <c r="AF18" s="20"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="19"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
       <c r="AC19" s="70"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="65"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="72"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
       <c r="AC20" s="70"/>
-      <c r="AD20" s="64"/>
-      <c r="AE20" s="65"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="72"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
       <c r="AC21" s="70"/>
-      <c r="AD21" s="64"/>
-      <c r="AE21" s="65"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="72"/>
       <c r="AF21" s="20"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
       <c r="AC22" s="70"/>
-      <c r="AD22" s="64"/>
-      <c r="AE22" s="65"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="72"/>
       <c r="AF22" s="20"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
       <c r="AC23" s="70"/>
-      <c r="AD23" s="64"/>
-      <c r="AE23" s="65"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="72"/>
       <c r="AF23" s="20"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="73"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="67"/>
       <c r="AF24" s="20"/>
       <c r="AG24" s="7"/>
     </row>
@@ -4191,6 +4524,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AB22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="F1:U1"/>
     <mergeCell ref="F2:U2"/>
     <mergeCell ref="B24:D24"/>
@@ -4207,78 +4612,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:AB12"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="AC18:AE18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866099999999999" right="0.70866099999999999" top="0.748031" bottom="0.748031" header="0.31496099999999999" footer="0.31496099999999999"/>
@@ -4308,98 +4641,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="74" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="45" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="45" t="s">
+      <c r="W1" s="69"/>
+      <c r="X1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="45" t="s">
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47">
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="89">
         <v>44151</v>
       </c>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
     </row>
     <row r="2" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="74" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="45" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="45" t="s">
+      <c r="W2" s="69"/>
+      <c r="X2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="45" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="47">
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="89">
         <v>44151</v>
       </c>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
     </row>
     <row r="3" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
@@ -5287,51 +5620,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="74" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="45" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="45" t="s">
+      <c r="W1" s="69"/>
+      <c r="X1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="45" t="s">
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47">
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="89">
         <v>44151</v>
       </c>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
       <c r="AH1" s="28"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
@@ -5348,51 +5681,51 @@
       <c r="AU1" s="4"/>
     </row>
     <row r="2" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="74" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="45" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="45" t="s">
+      <c r="W2" s="69"/>
+      <c r="X2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="45" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="47">
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="89">
         <v>44151</v>
       </c>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
@@ -5508,392 +5841,392 @@
     </row>
     <row r="5" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="81" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="81" t="s">
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="87" t="s">
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="81" t="s">
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="81" t="s">
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="81" t="s">
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="81" t="s">
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="AM5" s="82"/>
-      <c r="AN5" s="82"/>
-      <c r="AO5" s="82"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="82"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="82"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="91"/>
+      <c r="AO5" s="91"/>
+      <c r="AP5" s="91"/>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="91"/>
       <c r="AU5" s="11"/>
     </row>
     <row r="6" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
-      <c r="B6" s="84">
+      <c r="B6" s="92">
         <v>1</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="83" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="83" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="60" t="s">
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="85" t="s">
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="85" t="s">
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="83" t="s">
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="83" t="s">
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
       <c r="AU6" s="11"/>
     </row>
     <row r="7" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
-      <c r="B7" s="84">
+      <c r="B7" s="92">
         <v>2</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="83" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="83" t="s">
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="60" t="s">
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="85" t="s">
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="85" t="s">
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="83" t="s">
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="83" t="s">
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="69"/>
-      <c r="AT7" s="69"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
       <c r="AU7" s="11"/>
     </row>
     <row r="8" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
-      <c r="B8" s="84">
+      <c r="B8" s="92">
         <v>3</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="60" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="60" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="60" t="s">
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="63" t="s">
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="63" t="s">
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="83" t="s">
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="60" t="s">
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="61"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="62"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="86"/>
+      <c r="AO8" s="86"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="87"/>
       <c r="AU8" s="11"/>
     </row>
     <row r="9" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
-      <c r="B9" s="84">
+      <c r="B9" s="92">
         <v>4</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="60" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="63" t="s">
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="63" t="s">
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="60" t="s">
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="60" t="s">
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="62"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="87"/>
       <c r="AU9" s="11"/>
     </row>
     <row r="10" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
-      <c r="B10" s="84">
+      <c r="B10" s="92">
         <v>5</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="60" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="60" t="s">
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="60" t="s">
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="63" t="s">
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="91"/>
-      <c r="Y10" s="63" t="s">
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="60" t="s">
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="60" t="s">
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="92"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="92"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="93"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="103"/>
       <c r="AU10" s="11"/>
     </row>
     <row r="11" spans="1:47" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -6780,6 +7113,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="AC10:AK10"/>
+    <mergeCell ref="AL10:AT10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="AL6:AT6"/>
+    <mergeCell ref="AL7:AT7"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AC7:AK7"/>
+    <mergeCell ref="Y6:AB6"/>
+    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U5:X5"/>
     <mergeCell ref="AL5:AT5"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="Y8:AB8"/>
@@ -6796,50 +7173,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="J8:O8"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="AL6:AT6"/>
-    <mergeCell ref="AL7:AT7"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="AC7:AK7"/>
-    <mergeCell ref="Y6:AB6"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="AC10:AK10"/>
-    <mergeCell ref="AL10:AT10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:O10"/>
-    <mergeCell ref="P10:T10"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="1">
@@ -6857,7 +7190,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG68"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -6874,98 +7207,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="74" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="45" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="45" t="s">
+      <c r="W1" s="69"/>
+      <c r="X1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="45" t="s">
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47">
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="89">
         <v>44151</v>
       </c>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
     </row>
     <row r="2" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="74" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="45" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="45" t="s">
+      <c r="W2" s="69"/>
+      <c r="X2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="45" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="47">
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="89">
         <v>44151</v>
       </c>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
     </row>
     <row r="3" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
@@ -7341,8 +7674,8 @@
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="31" t="s">
-        <v>49</v>
+      <c r="F13" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -7399,8 +7732,8 @@
         <v>46</v>
       </c>
       <c r="T14" s="23"/>
-      <c r="U14" s="21" t="s">
-        <v>32</v>
+      <c r="U14" s="38" t="s">
+        <v>60</v>
       </c>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
@@ -7454,8 +7787,8 @@
       <c r="A16" s="8"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="30" t="s">
-        <v>50</v>
+      <c r="D16" s="39" t="s">
+        <v>61</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -7487,11 +7820,11 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -7522,145 +7855,135 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="7"/>
     </row>
-    <row r="18" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="13"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="7"/>
       <c r="AF18" s="8"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="8"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="T20" s="23"/>
-      <c r="U20" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="23"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="13"/>
       <c r="AF20" s="8"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="T21" s="23"/>
-      <c r="U21" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
@@ -7670,17 +7993,21 @@
       <c r="AB21" s="22"/>
       <c r="AC21" s="22"/>
       <c r="AD21" s="22"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="8"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -7692,106 +8019,110 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="T22" s="23"/>
+      <c r="U22" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="23"/>
       <c r="AF22" s="8"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="7"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" s="23"/>
+      <c r="U23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="23"/>
       <c r="AF23" s="8"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="7"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="16"/>
       <c r="AF24" s="8"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="41" t="s">
+        <v>68</v>
+      </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="30" t="s">
-        <v>55</v>
-      </c>
+      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -7820,11 +8151,11 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -7855,14 +8186,14 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="7"/>
     </row>
-    <row r="27" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="30" t="s">
-        <v>56</v>
-      </c>
+      <c r="D27" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -7892,15 +8223,15 @@
       <c r="AF27" s="8"/>
       <c r="AG27" s="7"/>
     </row>
-    <row r="28" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="30" t="s">
-        <v>57</v>
-      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7929,13 +8260,15 @@
       <c r="AF28" s="8"/>
       <c r="AG28" s="7"/>
     </row>
-    <row r="29" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -7964,14 +8297,12 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="7"/>
     </row>
-    <row r="30" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -8001,14 +8332,14 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="7"/>
     </row>
-    <row r="31" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="30" t="s">
-        <v>59</v>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41" t="s">
+        <v>67</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -8038,11 +8369,11 @@
       <c r="AF31" s="8"/>
       <c r="AG31" s="7"/>
     </row>
-    <row r="32" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="42"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -8077,10 +8408,10 @@
       <c r="A33" s="8"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="D33" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -8115,10 +8446,10 @@
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="30" t="s">
-        <v>61</v>
-      </c>
+      <c r="E34" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -8147,13 +8478,15 @@
       <c r="AF34" s="8"/>
       <c r="AG34" s="7"/>
     </row>
-    <row r="35" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="41" t="s">
+        <v>70</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -8182,12 +8515,12 @@
       <c r="AF35" s="8"/>
       <c r="AG35" s="7"/>
     </row>
-    <row r="36" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="39"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -8217,15 +8550,15 @@
       <c r="AF36" s="8"/>
       <c r="AG36" s="7"/>
     </row>
-    <row r="37" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="41" t="s">
+        <v>72</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -8257,80 +8590,84 @@
     <row r="38" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="13"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="7"/>
       <c r="AF38" s="8"/>
       <c r="AG38" s="7"/>
     </row>
     <row r="39" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="8"/>
       <c r="AG39" s="7"/>
     </row>
-    <row r="40" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="41" t="s">
+        <v>74</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -8355,16 +8692,16 @@
       <c r="AB40" s="6"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="8"/>
       <c r="AG40" s="7"/>
     </row>
-    <row r="41" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="39"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -8390,44 +8727,985 @@
       <c r="AB41" s="6"/>
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="8"/>
       <c r="AG41" s="7"/>
     </row>
     <row r="42" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="12"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="13"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="7"/>
+    </row>
+    <row r="43" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="7"/>
+    </row>
+    <row r="44" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="7"/>
+    </row>
+    <row r="45" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="7"/>
+    </row>
+    <row r="46" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="7"/>
+    </row>
+    <row r="47" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="8"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="7"/>
+    </row>
+    <row r="48" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="8"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="7"/>
+    </row>
+    <row r="49" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="7"/>
+    </row>
+    <row r="50" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="8"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="7"/>
+    </row>
+    <row r="51" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="7"/>
+    </row>
+    <row r="52" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="7"/>
+    </row>
+    <row r="53" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="8"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="7"/>
+    </row>
+    <row r="54" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="8"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="7"/>
+    </row>
+    <row r="55" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="8"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="7"/>
+    </row>
+    <row r="56" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="8"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="7"/>
+    </row>
+    <row r="57" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="7"/>
+    </row>
+    <row r="58" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="8"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="13"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="7"/>
+    </row>
+    <row r="59" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="7"/>
+    </row>
+    <row r="60" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="8"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="36"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="T60" s="36"/>
+      <c r="U60" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="36"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="7"/>
+    </row>
+    <row r="61" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="8"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="T61" s="36"/>
+      <c r="U61" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="36"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="7"/>
+    </row>
+    <row r="62" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="8"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="16"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="7"/>
+    </row>
+    <row r="63" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="8"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="7"/>
+    </row>
+    <row r="64" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="8"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="7"/>
+    </row>
+    <row r="65" spans="1:33" s="33" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="8"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="13"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="7"/>
+    </row>
+    <row r="66" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="8"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="7"/>
+    </row>
+    <row r="67" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="8"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="7"/>
+    </row>
+    <row r="68" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="12"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="9"/>
+      <c r="AG68" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8446,7 +9724,7 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.70866099999999999" right="0.70866099999999999" top="0.748031" bottom="0.748031" header="0.31496099999999999" footer="0.31496099999999999"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8472,98 +9750,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="74" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="45" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="45" t="s">
+      <c r="W1" s="69"/>
+      <c r="X1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="45" t="s">
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47">
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="89">
         <v>44151</v>
       </c>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
     </row>
     <row r="2" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="74" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="45" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="45" t="s">
+      <c r="W2" s="69"/>
+      <c r="X2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="45" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="47">
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="89">
         <v>44151</v>
       </c>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
     </row>
     <row r="3" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
@@ -8638,7 +9916,7 @@
     <row r="5" spans="1:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
       <c r="B5" s="30" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -8676,13 +9954,13 @@
       <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="30" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="95" t="s">
-        <v>69</v>
+      <c r="G6" s="39" t="s">
+        <v>55</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -8715,13 +9993,13 @@
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="30" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="30" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
